--- a/data/01.xlsx
+++ b/data/01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kadai\html_hosono_20_Javascript_Championship\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76748DC-2C11-4896-AD15-245FAB7D8C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA4E620-4780-4A16-A511-03053897AA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{207D8E04-59EA-4E36-B639-981F26B8B67A}"/>
   </bookViews>
@@ -38,1263 +38,1261 @@
     <t>ABW</t>
   </si>
   <si>
-    <t>Aruba</t>
-  </si>
-  <si>
     <t>AFG</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola</t>
-  </si>
-  <si>
     <t>AIA</t>
   </si>
   <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
     <t>ALB</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
     <t>AND</t>
   </si>
   <si>
-    <t>Andorra</t>
-  </si>
-  <si>
     <t>ANT</t>
   </si>
   <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
     <t>ARE</t>
   </si>
   <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
     <t>ARG</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
     <t>ARM</t>
   </si>
   <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>ASM</t>
   </si>
   <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
     <t>ATG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
     <t>AUS</t>
   </si>
   <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>AUT</t>
   </si>
   <si>
-    <t>Austria</t>
-  </si>
-  <si>
     <t>AZE</t>
   </si>
   <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
     <t>BDI</t>
   </si>
   <si>
-    <t>Burundi</t>
-  </si>
-  <si>
     <t>BEL</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
-  </si>
-  <si>
     <t>BFA</t>
   </si>
   <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
     <t>BGD</t>
   </si>
   <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
     <t>BGR</t>
   </si>
   <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
     <t>BHR</t>
   </si>
   <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
     <t>BHS</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
     <t>BIH</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
     <t>BLR</t>
   </si>
   <si>
-    <t>Belarus</t>
-  </si>
-  <si>
     <t>BLZ</t>
   </si>
   <si>
-    <t>Belize</t>
-  </si>
-  <si>
     <t>BMU</t>
   </si>
   <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
     <t>BOL</t>
   </si>
   <si>
-    <t>Bolivia, Plurinational State of</t>
-  </si>
-  <si>
     <t>BRA</t>
   </si>
   <si>
-    <t>Brazil</t>
-  </si>
-  <si>
     <t>BRB</t>
   </si>
   <si>
-    <t>Barbados</t>
-  </si>
-  <si>
     <t>BRN</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
     <t>BTN</t>
   </si>
   <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana</t>
-  </si>
-  <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
     <t>CAN</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
     <t>CHE</t>
   </si>
   <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
     <t>CHL</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
     <t>CHN</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>CIV</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo</t>
-  </si>
-  <si>
     <t>COL</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
     <t>CPV</t>
   </si>
   <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
     <t>CRI</t>
   </si>
   <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
     <t>CUB</t>
   </si>
   <si>
-    <t>Cuba</t>
-  </si>
-  <si>
     <t>CYM</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
     <t>CYP</t>
   </si>
   <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
     <t>CZE</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>DEU</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>DJI</t>
   </si>
   <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
     <t>DMA</t>
   </si>
   <si>
-    <t>Dominica</t>
-  </si>
-  <si>
     <t>DNK</t>
   </si>
   <si>
-    <t>Denmark</t>
-  </si>
-  <si>
     <t>DOM</t>
   </si>
   <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria</t>
-  </si>
-  <si>
     <t>ECU</t>
   </si>
   <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
-  </si>
-  <si>
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
     <t>ESP</t>
   </si>
   <si>
-    <t>Spain</t>
-  </si>
-  <si>
     <t>EST</t>
   </si>
   <si>
-    <t>Estonia</t>
-  </si>
-  <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
     <t>FIN</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
     <t>FJI</t>
   </si>
   <si>
-    <t>Fiji</t>
-  </si>
-  <si>
     <t>FRA</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>FRO</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
     <t>FSM</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon</t>
-  </si>
-  <si>
     <t>GBR</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>GEO</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>GHA</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
     <t>GIB</t>
   </si>
   <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
-  </si>
-  <si>
     <t>GLP</t>
   </si>
   <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
-  </si>
-  <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
     <t>GRC</t>
   </si>
   <si>
-    <t>Greece</t>
-  </si>
-  <si>
     <t>GRD</t>
   </si>
   <si>
-    <t>Grenada</t>
-  </si>
-  <si>
     <t>GRL</t>
   </si>
   <si>
-    <t>Greenland</t>
-  </si>
-  <si>
     <t>GTM</t>
   </si>
   <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
     <t>GUF</t>
   </si>
   <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
     <t>GUM</t>
   </si>
   <si>
-    <t>Guam</t>
-  </si>
-  <si>
     <t>GUY</t>
   </si>
   <si>
-    <t>Guyana</t>
-  </si>
-  <si>
     <t>HKG</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
     <t>HND</t>
   </si>
   <si>
-    <t>Honduras</t>
-  </si>
-  <si>
     <t>HRV</t>
   </si>
   <si>
-    <t>Croatia</t>
-  </si>
-  <si>
     <t>HTI</t>
   </si>
   <si>
-    <t>Haiti</t>
-  </si>
-  <si>
     <t>HUN</t>
   </si>
   <si>
-    <t>Hungary</t>
-  </si>
-  <si>
     <t>IDN</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>IRL</t>
   </si>
   <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t>IRN</t>
   </si>
   <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
     <t>IRQ</t>
   </si>
   <si>
-    <t>Iraq</t>
-  </si>
-  <si>
     <t>ISL</t>
   </si>
   <si>
-    <t>Iceland</t>
-  </si>
-  <si>
     <t>ISR</t>
   </si>
   <si>
-    <t>Israel</t>
-  </si>
-  <si>
     <t>ITA</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>JAM</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>JOR</t>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
     <t>JPN</t>
   </si>
   <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t>KAZ</t>
   </si>
   <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
     <t>KEN</t>
   </si>
   <si>
-    <t>Kenya</t>
-  </si>
-  <si>
     <t>KGZ</t>
   </si>
   <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
     <t>KHM</t>
   </si>
   <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
     <t>KIR</t>
   </si>
   <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
     <t>KNA</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t>KOR</t>
   </si>
   <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
     <t>KWT</t>
   </si>
   <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
     <t>LAO</t>
   </si>
   <si>
-    <t>Lao People's Democratic Republic</t>
-  </si>
-  <si>
     <t>LBN</t>
   </si>
   <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
     <t>LBR</t>
   </si>
   <si>
-    <t>Liberia</t>
-  </si>
-  <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya</t>
-  </si>
-  <si>
     <t>LCA</t>
   </si>
   <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
     <t>LIE</t>
   </si>
   <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>LKA</t>
   </si>
   <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
     <t>LSO</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
     <t>LTU</t>
   </si>
   <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
     <t>LUX</t>
   </si>
   <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
     <t>LVA</t>
   </si>
   <si>
-    <t>Latvia</t>
-  </si>
-  <si>
     <t>MAC</t>
   </si>
   <si>
-    <t>Macau</t>
-  </si>
-  <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
-  </si>
-  <si>
     <t>MCO</t>
   </si>
   <si>
-    <t>Monaco</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
     <t>MDG</t>
   </si>
   <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
     <t>MDV</t>
   </si>
   <si>
-    <t>Maldives</t>
-  </si>
-  <si>
     <t>MEX</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
     <t>MHL</t>
   </si>
   <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
     <t>MKD</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>MLI</t>
   </si>
   <si>
-    <t>Mali</t>
-  </si>
-  <si>
     <t>MLT</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>MMR</t>
   </si>
   <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
     <t>MNE</t>
   </si>
   <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
     <t>MNG</t>
   </si>
   <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
     <t>MNP</t>
   </si>
   <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
     <t>MOZ</t>
   </si>
   <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
     <t>MSR</t>
   </si>
   <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
     <t>MTQ</t>
   </si>
   <si>
-    <t>Martinique</t>
-  </si>
-  <si>
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
     <t>MWI</t>
   </si>
   <si>
-    <t>Malawi</t>
-  </si>
-  <si>
     <t>MYS</t>
   </si>
   <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
-  </si>
-  <si>
     <t>NCL</t>
   </si>
   <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
     <t>NER</t>
   </si>
   <si>
-    <t>Niger</t>
-  </si>
-  <si>
     <t>NFK</t>
   </si>
   <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
     <t>NIC</t>
   </si>
   <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
     <t>NLD</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
     <t>NOR</t>
   </si>
   <si>
-    <t>Norway</t>
-  </si>
-  <si>
     <t>NPL</t>
   </si>
   <si>
-    <t>Nepal</t>
-  </si>
-  <si>
     <t>NZL</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>OMN</t>
   </si>
   <si>
-    <t>Oman</t>
-  </si>
-  <si>
     <t>PAK</t>
   </si>
   <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
     <t>PAN</t>
   </si>
   <si>
-    <t>Panama</t>
-  </si>
-  <si>
     <t>PER</t>
   </si>
   <si>
-    <t>Peru</t>
-  </si>
-  <si>
     <t>PHL</t>
   </si>
   <si>
-    <t>Philippines</t>
-  </si>
-  <si>
     <t>PLW</t>
   </si>
   <si>
-    <t>Palau</t>
-  </si>
-  <si>
     <t>PNG</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
     <t>POL</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
     <t>PRI</t>
   </si>
   <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
     <t>PRT</t>
   </si>
   <si>
-    <t>Portugal</t>
-  </si>
-  <si>
     <t>PRY</t>
   </si>
   <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
     <t>PYF</t>
   </si>
   <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
     <t>QAT</t>
   </si>
   <si>
-    <t>Qatar</t>
-  </si>
-  <si>
     <t>REU</t>
   </si>
   <si>
-    <t>Réunion</t>
-  </si>
-  <si>
     <t>ROU</t>
   </si>
   <si>
-    <t>Romania</t>
-  </si>
-  <si>
     <t>RUS</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
     <t>RWA</t>
   </si>
   <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
     <t>SAU</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
-  </si>
-  <si>
     <t>SGP</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
     <t>SLB</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
     <t>SLE</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
     <t>SLV</t>
   </si>
   <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
     <t>SMR</t>
   </si>
   <si>
-    <t>San Marino</t>
-  </si>
-  <si>
     <t>SRB</t>
   </si>
   <si>
-    <t>Serbia</t>
-  </si>
-  <si>
     <t>SUR</t>
   </si>
   <si>
-    <t>Suriname</t>
-  </si>
-  <si>
     <t>SVK</t>
   </si>
   <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
     <t>SVN</t>
   </si>
   <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
     <t>SWE</t>
   </si>
   <si>
-    <t>Sweden</t>
-  </si>
-  <si>
     <t>SWZ</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>SYC</t>
   </si>
   <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
     <t>TCA</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo</t>
-  </si>
-  <si>
     <t>THA</t>
   </si>
   <si>
-    <t>Thailand</t>
-  </si>
-  <si>
     <t>TJK</t>
   </si>
   <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
     <t>TKM</t>
   </si>
   <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
     <t>TLS</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>TON</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
     <t>TTO</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
     <t>TUR</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
     <t>TUV</t>
   </si>
   <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
     <t>TWN</t>
   </si>
   <si>
-    <t>Taiwan, Province of China</t>
-  </si>
-  <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
     <t>UKR</t>
   </si>
   <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
     <t>URY</t>
   </si>
   <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>UZB</t>
   </si>
   <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
     <t>VCT</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
     <t>VEN</t>
   </si>
   <si>
-    <t>Venezuela, Bolivarian Republic of</t>
-  </si>
-  <si>
     <t>VGB</t>
   </si>
   <si>
-    <t>Virgin Islands, British</t>
-  </si>
-  <si>
     <t>VIR</t>
   </si>
   <si>
-    <t>Virgin Islands, U.S.</t>
-  </si>
-  <si>
     <t>VNM</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>VUT</t>
   </si>
   <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
     <t>WSM</t>
   </si>
   <si>
-    <t>Samoa</t>
-  </si>
-  <si>
     <t>YEM</t>
   </si>
   <si>
-    <t>Yemen</t>
-  </si>
-  <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
-  </si>
-  <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
-  </si>
-  <si>
     <t>ZWE</t>
   </si>
   <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>country_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name_en</t>
-    <phoneticPr fontId="1"/>
+    <t>COUNTRY_CODE</t>
+  </si>
+  <si>
+    <t>NAME_EN</t>
+  </si>
+  <si>
+    <t>ARUBA</t>
+  </si>
+  <si>
+    <t>AFGHANISTAN</t>
+  </si>
+  <si>
+    <t>ANGOLA</t>
+  </si>
+  <si>
+    <t>ANGUILLA</t>
+  </si>
+  <si>
+    <t>ALBANIA</t>
+  </si>
+  <si>
+    <t>ANDORRA</t>
+  </si>
+  <si>
+    <t>NETHERLANDS ANTILLES</t>
+  </si>
+  <si>
+    <t>UNITED ARAB EMIRATES</t>
+  </si>
+  <si>
+    <t>ARGENTINA</t>
+  </si>
+  <si>
+    <t>ARMENIA</t>
+  </si>
+  <si>
+    <t>AMERICAN SAMOA</t>
+  </si>
+  <si>
+    <t>ANTIGUA AND BARBUDA</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>AZERBAIJAN</t>
+  </si>
+  <si>
+    <t>BURUNDI</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>BENIN</t>
+  </si>
+  <si>
+    <t>BURKINA FASO</t>
+  </si>
+  <si>
+    <t>BANGLADESH</t>
+  </si>
+  <si>
+    <t>BULGARIA</t>
+  </si>
+  <si>
+    <t>BAHRAIN</t>
+  </si>
+  <si>
+    <t>BAHAMAS</t>
+  </si>
+  <si>
+    <t>BOSNIA AND HERZEGOVINA</t>
+  </si>
+  <si>
+    <t>BELARUS</t>
+  </si>
+  <si>
+    <t>BELIZE</t>
+  </si>
+  <si>
+    <t>BERMUDA</t>
+  </si>
+  <si>
+    <t>BOLIVIA, PLURINATIONAL STATE OF</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t>BARBADOS</t>
+  </si>
+  <si>
+    <t>BRUNEI DARUSSALAM</t>
+  </si>
+  <si>
+    <t>BHUTAN</t>
+  </si>
+  <si>
+    <t>BOTSWANA</t>
+  </si>
+  <si>
+    <t>CENTRAL AFRICAN REPUBLIC</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>CHILE</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>CÔTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t>CAMEROON</t>
+  </si>
+  <si>
+    <t>CONGO</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
+  </si>
+  <si>
+    <t>CAPE VERDE</t>
+  </si>
+  <si>
+    <t>COSTA RICA</t>
+  </si>
+  <si>
+    <t>CUBA</t>
+  </si>
+  <si>
+    <t>CAYMAN ISLANDS</t>
+  </si>
+  <si>
+    <t>CYPRUS</t>
+  </si>
+  <si>
+    <t>CZECHIA</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>DJIBOUTI</t>
+  </si>
+  <si>
+    <t>DOMINICA</t>
+  </si>
+  <si>
+    <t>DENMARK</t>
+  </si>
+  <si>
+    <t>DOMINICAN REPUBLIC</t>
+  </si>
+  <si>
+    <t>ALGERIA</t>
+  </si>
+  <si>
+    <t>ECUADOR</t>
+  </si>
+  <si>
+    <t>EGYPT</t>
+  </si>
+  <si>
+    <t>ERITREA</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>ESTONIA</t>
+  </si>
+  <si>
+    <t>ETHIOPIA</t>
+  </si>
+  <si>
+    <t>FINLAND</t>
+  </si>
+  <si>
+    <t>FIJI</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>FAROE ISLANDS</t>
+  </si>
+  <si>
+    <t>MICRONESIA, FEDERATED STATES OF</t>
+  </si>
+  <si>
+    <t>GABON</t>
+  </si>
+  <si>
+    <t>UNITED KINGDOM</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>GHANA</t>
+  </si>
+  <si>
+    <t>GIBRALTAR</t>
+  </si>
+  <si>
+    <t>GUINEA</t>
+  </si>
+  <si>
+    <t>GUADELOUPE</t>
+  </si>
+  <si>
+    <t>GAMBIA</t>
+  </si>
+  <si>
+    <t>GUINEA-BISSAU</t>
+  </si>
+  <si>
+    <t>GREECE</t>
+  </si>
+  <si>
+    <t>GRENADA</t>
+  </si>
+  <si>
+    <t>GREENLAND</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>FRENCH GUIANA</t>
+  </si>
+  <si>
+    <t>GUAM</t>
+  </si>
+  <si>
+    <t>GUYANA</t>
+  </si>
+  <si>
+    <t>HONG KONG</t>
+  </si>
+  <si>
+    <t>HONDURAS</t>
+  </si>
+  <si>
+    <t>CROATIA</t>
+  </si>
+  <si>
+    <t>HAITI</t>
+  </si>
+  <si>
+    <t>HUNGARY</t>
+  </si>
+  <si>
+    <t>INDONESIA</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>IRELAND</t>
+  </si>
+  <si>
+    <t>IRAN, ISLAMIC REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>IRAQ</t>
+  </si>
+  <si>
+    <t>ICELAND</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>JAMAICA</t>
+  </si>
+  <si>
+    <t>JORDAN</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>KAZAKHSTAN</t>
+  </si>
+  <si>
+    <t>KENYA</t>
+  </si>
+  <si>
+    <t>KYRGYZSTAN</t>
+  </si>
+  <si>
+    <t>CAMBODIA</t>
+  </si>
+  <si>
+    <t>KIRIBATI</t>
+  </si>
+  <si>
+    <t>SAINT KITTS AND NEVIS</t>
+  </si>
+  <si>
+    <t>KOREA, REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>KUWAIT</t>
+  </si>
+  <si>
+    <t>LAO PEOPLE'S DEMOCRATIC REPUBLIC</t>
+  </si>
+  <si>
+    <t>LEBANON</t>
+  </si>
+  <si>
+    <t>LIBERIA</t>
+  </si>
+  <si>
+    <t>LIBYA</t>
+  </si>
+  <si>
+    <t>SAINT LUCIA</t>
+  </si>
+  <si>
+    <t>LIECHTENSTEIN</t>
+  </si>
+  <si>
+    <t>SRI LANKA</t>
+  </si>
+  <si>
+    <t>LESOTHO</t>
+  </si>
+  <si>
+    <t>LITHUANIA</t>
+  </si>
+  <si>
+    <t>LUXEMBOURG</t>
+  </si>
+  <si>
+    <t>LATVIA</t>
+  </si>
+  <si>
+    <t>MACAU</t>
+  </si>
+  <si>
+    <t>MOROCCO</t>
+  </si>
+  <si>
+    <t>MONACO</t>
+  </si>
+  <si>
+    <t>MOLDOVA, REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>MADAGASCAR</t>
+  </si>
+  <si>
+    <t>MALDIVES</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>MARSHALL ISLANDS</t>
+  </si>
+  <si>
+    <t>NORTH MACEDONIA</t>
+  </si>
+  <si>
+    <t>MALI</t>
+  </si>
+  <si>
+    <t>MALTA</t>
+  </si>
+  <si>
+    <t>MYANMAR</t>
+  </si>
+  <si>
+    <t>MONTENEGRO</t>
+  </si>
+  <si>
+    <t>MONGOLIA</t>
+  </si>
+  <si>
+    <t>NORTHERN MARIANA ISLANDS</t>
+  </si>
+  <si>
+    <t>MOZAMBIQUE</t>
+  </si>
+  <si>
+    <t>MAURITANIA</t>
+  </si>
+  <si>
+    <t>MONTSERRAT</t>
+  </si>
+  <si>
+    <t>MARTINIQUE</t>
+  </si>
+  <si>
+    <t>MAURITIUS</t>
+  </si>
+  <si>
+    <t>MALAWI</t>
+  </si>
+  <si>
+    <t>MALAYSIA</t>
+  </si>
+  <si>
+    <t>NAMIBIA</t>
+  </si>
+  <si>
+    <t>NEW CALEDONIA</t>
+  </si>
+  <si>
+    <t>NIGER</t>
+  </si>
+  <si>
+    <t>NORFOLK ISLAND</t>
+  </si>
+  <si>
+    <t>NIGERIA</t>
+  </si>
+  <si>
+    <t>NICARAGUA</t>
+  </si>
+  <si>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
+    <t>NORWAY</t>
+  </si>
+  <si>
+    <t>NEPAL</t>
+  </si>
+  <si>
+    <t>NEW ZEALAND</t>
+  </si>
+  <si>
+    <t>OMAN</t>
+  </si>
+  <si>
+    <t>PAKISTAN</t>
+  </si>
+  <si>
+    <t>PANAMA</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>PHILIPPINES</t>
+  </si>
+  <si>
+    <t>PALAU</t>
+  </si>
+  <si>
+    <t>PAPUA NEW GUINEA</t>
+  </si>
+  <si>
+    <t>POLAND</t>
+  </si>
+  <si>
+    <t>PUERTO RICO</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>PARAGUAY</t>
+  </si>
+  <si>
+    <t>FRENCH POLYNESIA</t>
+  </si>
+  <si>
+    <t>QATAR</t>
+  </si>
+  <si>
+    <t>RÉUNION</t>
+  </si>
+  <si>
+    <t>ROMANIA</t>
+  </si>
+  <si>
+    <t>RUSSIAN FEDERATION</t>
+  </si>
+  <si>
+    <t>RWANDA</t>
+  </si>
+  <si>
+    <t>SAUDI ARABIA</t>
+  </si>
+  <si>
+    <t>SENEGAL</t>
+  </si>
+  <si>
+    <t>SINGAPORE</t>
+  </si>
+  <si>
+    <t>SOLOMON ISLANDS</t>
+  </si>
+  <si>
+    <t>SIERRA LEONE</t>
+  </si>
+  <si>
+    <t>EL SALVADOR</t>
+  </si>
+  <si>
+    <t>SAN MARINO</t>
+  </si>
+  <si>
+    <t>SERBIA</t>
+  </si>
+  <si>
+    <t>SURINAME</t>
+  </si>
+  <si>
+    <t>SLOVAKIA</t>
+  </si>
+  <si>
+    <t>SLOVENIA</t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>ESWATINI</t>
+  </si>
+  <si>
+    <t>SEYCHELLES</t>
+  </si>
+  <si>
+    <t>TURKS AND CAICOS ISLANDS</t>
+  </si>
+  <si>
+    <t>CHAD</t>
+  </si>
+  <si>
+    <t>TOGO</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>TAJIKISTAN</t>
+  </si>
+  <si>
+    <t>TURKMENISTAN</t>
+  </si>
+  <si>
+    <t>TIMOR-LESTE</t>
+  </si>
+  <si>
+    <t>TONGA</t>
+  </si>
+  <si>
+    <t>TRINIDAD AND TOBAGO</t>
+  </si>
+  <si>
+    <t>TUNISIA</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>TUVALU</t>
+  </si>
+  <si>
+    <t>TAIWAN, PROVINCE OF CHINA</t>
+  </si>
+  <si>
+    <t>TANZANIA, UNITED REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>UGANDA</t>
+  </si>
+  <si>
+    <t>UKRAINE</t>
+  </si>
+  <si>
+    <t>URUGUAY</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>UZBEKISTAN</t>
+  </si>
+  <si>
+    <t>SAINT VINCENT AND THE GRENADINES</t>
+  </si>
+  <si>
+    <t>VENEZUELA, BOLIVARIAN REPUBLIC OF</t>
+  </si>
+  <si>
+    <t>VIRGIN ISLANDS, BRITISH</t>
+  </si>
+  <si>
+    <t>VIRGIN ISLANDS, U.S.</t>
+  </si>
+  <si>
+    <t>VIET NAM</t>
+  </si>
+  <si>
+    <t>VANUATU</t>
+  </si>
+  <si>
+    <t>SAMOA</t>
+  </si>
+  <si>
+    <t>YEMEN</t>
+  </si>
+  <si>
+    <t>SOUTH AFRICA</t>
+  </si>
+  <si>
+    <t>ZAMBIA</t>
+  </si>
+  <si>
+    <t>ZIMBABWE</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1659,7 @@
   <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1672,10 +1670,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
-        <v>419</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1683,1671 +1681,1671 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>265</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>358</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>359</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>363</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>392</v>
+        <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>398</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>402</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>404</v>
+        <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>406</v>
+        <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>408</v>
+        <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>410</v>
+        <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>412</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>414</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
